--- a/IRR_ols4.xlsx
+++ b/IRR_ols4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -155,122 +161,173 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.935)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.171)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.062)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.167)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.052)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.664)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.213)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.133)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.128)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.317)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.129)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.074)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.987)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.033)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.973)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.958)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.954)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.942)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.932)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.934)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.930)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.931)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.937)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.940)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.949)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.957)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.952)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.988)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.034)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.989)</t>
+    <t xml:space="preserve">1.916 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.826) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.025) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.946) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.066) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.948) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.436) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.082) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.010) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.009) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.008) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.456 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.011) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.163) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.873) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.863) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.723 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.857) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.859) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.774 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.842) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.850) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.844) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.840) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.838) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.836) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.831) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.830) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.829) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.039 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.828) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.026 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.832) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.859 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.749 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.835) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.937 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.847) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.032 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.851) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.762 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.874) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.019 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.008 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.922) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.087 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.904) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.882) </t>
   </si>
   <si>
     <t xml:space="preserve">(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">     </t>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="165">
+  <numFmts count="173">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -436,6 +493,14 @@
     <numFmt numFmtId="50162" formatCode="0.000"/>
     <numFmt numFmtId="50163" formatCode="0.000"/>
     <numFmt numFmtId="50164" formatCode="0.000"/>
+    <numFmt numFmtId="50165" formatCode="0.000"/>
+    <numFmt numFmtId="50166" formatCode="0.000"/>
+    <numFmt numFmtId="50167" formatCode="0.000"/>
+    <numFmt numFmtId="50168" formatCode="0.000"/>
+    <numFmt numFmtId="50169" formatCode="0.000"/>
+    <numFmt numFmtId="50170" formatCode="0.000"/>
+    <numFmt numFmtId="50171" formatCode="0.000"/>
+    <numFmt numFmtId="50172" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -541,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -789,24 +854,24 @@
     <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
@@ -816,7 +881,7 @@
     <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50085" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50086" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1038,7 +1103,7 @@
     <xf numFmtId="50158" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50159" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50159" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50160" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1053,7 +1118,31 @@
     <xf numFmtId="50163" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50164" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50164" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50165" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50166" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50167" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50168" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50169" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50170" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50171" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50172" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1354,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>83</v>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -1376,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -1387,10 +1476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1.459</v>
-      </c>
-      <c r="C4" s="91" t="n">
-        <v>1.459</v>
+        <v>1.603</v>
+      </c>
+      <c r="C4" s="95" t="n">
+        <v>1.603</v>
       </c>
     </row>
     <row r="5">
@@ -1398,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1409,10 +1498,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.579</v>
-      </c>
-      <c r="C6" s="93" t="n">
-        <v>1.579</v>
+        <v>1.81</v>
+      </c>
+      <c r="C6" s="97" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="7">
@@ -1420,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1431,10 +1520,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="C8" s="95" t="n">
-        <v>-1.4</v>
+        <v>-1.787</v>
+      </c>
+      <c r="C8" s="99" t="n">
+        <v>-1.787</v>
       </c>
     </row>
     <row r="9">
@@ -1442,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1453,10 +1542,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1.081</v>
-      </c>
-      <c r="C10" s="97" t="n">
-        <v>1.081</v>
+        <v>1.429</v>
+      </c>
+      <c r="C10" s="101" t="n">
+        <v>1.429</v>
       </c>
     </row>
     <row r="11">
@@ -1464,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -1475,10 +1564,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.383</v>
-      </c>
-      <c r="C12" s="99" t="n">
-        <v>-0.383</v>
+        <v>0.835</v>
+      </c>
+      <c r="C12" s="103" t="n">
+        <v>0.835</v>
       </c>
     </row>
     <row r="13">
@@ -1486,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -1497,10 +1586,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.937</v>
-      </c>
-      <c r="C14" s="101" t="n">
-        <v>0.937</v>
+        <v>2.073</v>
+      </c>
+      <c r="C14" s="105" t="n">
+        <v>2.073</v>
       </c>
     </row>
     <row r="15">
@@ -1508,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C16" s="103" t="n">
-        <v>0.002</v>
+      <c r="B16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -1530,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="105" t="n">
-        <v>0</v>
+      <c r="B18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1552,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1565,7 +1654,7 @@
       <c r="B20" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="107" t="n">
+      <c r="C20" s="111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1574,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="108" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="112" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -1585,10 +1674,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.213</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>83</v>
+        <v>-1.671</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1596,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="110" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -1607,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.117</v>
-      </c>
-      <c r="C24" s="111" t="s">
-        <v>83</v>
+        <v>-1.932</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -1618,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="112" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -1629,10 +1718,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>83</v>
+        <v>-1.866</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -1640,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="114" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="118" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="32" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>83</v>
+      <c r="B28" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -1662,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -1673,10 +1762,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="C30" s="117" t="s">
-        <v>83</v>
+        <v>-1.938</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1684,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="118" t="s">
-        <v>83</v>
+        <v>66</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -1695,10 +1784,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="C32" s="119" t="s">
-        <v>83</v>
+        <v>-1.707</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1706,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="120" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -1717,10 +1806,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>83</v>
+        <v>-1.692</v>
+      </c>
+      <c r="C34" s="125" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -1728,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="122" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="40" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="C36" s="123" t="s">
-        <v>83</v>
+      <c r="B36" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="127" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -1750,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="128" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -1761,10 +1850,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C38" s="125" t="s">
-        <v>83</v>
+        <v>-1.386</v>
+      </c>
+      <c r="C38" s="129" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -1772,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="126" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="130" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="44" t="n">
-        <v>-0.039</v>
-      </c>
-      <c r="C40" s="127" t="s">
-        <v>83</v>
+      <c r="B40" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="131" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1794,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="128" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="C41" s="132" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -1805,10 +1894,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C42" s="129" t="s">
-        <v>83</v>
+        <v>-1.603</v>
+      </c>
+      <c r="C42" s="133" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -1816,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="130" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="134" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -1827,10 +1916,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="C44" s="131" t="s">
-        <v>83</v>
+        <v>-1.586</v>
+      </c>
+      <c r="C44" s="135" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -1838,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="132" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="C45" s="136" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46">
@@ -1849,10 +1938,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="C46" s="133" t="s">
-        <v>83</v>
+        <v>-1.443</v>
+      </c>
+      <c r="C46" s="137" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -1860,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="134" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="C47" s="138" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48">
@@ -1871,10 +1960,10 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="C48" s="135" t="s">
-        <v>83</v>
+        <v>-1.581</v>
+      </c>
+      <c r="C48" s="139" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49">
@@ -1882,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="136" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="C49" s="140" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="50">
@@ -1893,10 +1982,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="C50" s="137" t="s">
-        <v>83</v>
+        <v>-1.572</v>
+      </c>
+      <c r="C50" s="141" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51">
@@ -1904,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="138" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C51" s="142" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52">
@@ -1915,10 +2004,10 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="C52" s="139" t="s">
-        <v>83</v>
+        <v>-1.374</v>
+      </c>
+      <c r="C52" s="143" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="53">
@@ -1926,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="140" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C53" s="144" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="54">
@@ -1937,10 +2026,10 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="n">
-        <v>-0.423</v>
-      </c>
-      <c r="C54" s="141" t="s">
-        <v>83</v>
+        <v>-1.42</v>
+      </c>
+      <c r="C54" s="145" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55">
@@ -1948,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="142" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C55" s="146" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56">
@@ -1959,10 +2048,10 @@
         <v>28</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>-0.411</v>
-      </c>
-      <c r="C56" s="143" t="s">
-        <v>83</v>
+        <v>-1.476</v>
+      </c>
+      <c r="C56" s="147" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57">
@@ -1970,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="144" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="C57" s="148" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="n">
-        <v>-0.214</v>
-      </c>
-      <c r="C58" s="145" t="s">
-        <v>83</v>
+      <c r="B58" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="149" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="59">
@@ -1992,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="146" t="s">
         <v>83</v>
+      </c>
+      <c r="C59" s="150" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="C60" s="147" t="s">
-        <v>83</v>
+      <c r="B60" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61">
@@ -2014,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="148" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="C61" s="152" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="C62" s="149" t="s">
-        <v>83</v>
+      <c r="B62" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="153" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63">
@@ -2036,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="150" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="C64" s="151" t="s">
-        <v>83</v>
+      <c r="B64" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="155" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65">
@@ -2058,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="152" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="C65" s="156" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66">
@@ -2069,10 +2158,10 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="n">
-        <v>-0.258</v>
-      </c>
-      <c r="C66" s="153" t="s">
-        <v>83</v>
+        <v>-1.532</v>
+      </c>
+      <c r="C66" s="157" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67">
@@ -2080,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="154" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="C67" s="158" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="68">
@@ -2091,10 +2180,10 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="n">
-        <v>-0.378</v>
-      </c>
-      <c r="C68" s="155" t="s">
-        <v>83</v>
+        <v>-1.613</v>
+      </c>
+      <c r="C68" s="159" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -2102,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="156" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="160" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="C70" s="157" t="s">
-        <v>83</v>
+      <c r="B70" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="161" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="71">
@@ -2124,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="158" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="C71" s="162" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="76" t="n">
-        <v>-0.458</v>
-      </c>
-      <c r="C72" s="159" t="s">
-        <v>83</v>
+      <c r="B72" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="163" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="73">
@@ -2146,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="160" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="C73" s="164" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="78" t="n">
-        <v>-0.266</v>
-      </c>
-      <c r="C74" s="161" t="s">
-        <v>83</v>
+      <c r="B74" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="165" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="75">
@@ -2168,21 +2257,21 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="162" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="C75" s="166" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="n">
-        <v>-0.346</v>
-      </c>
-      <c r="C76" s="163" t="s">
-        <v>83</v>
+      <c r="B76" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="167" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="77">
@@ -2190,21 +2279,21 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="164" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="C77" s="168" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="C78" s="165" t="s">
-        <v>83</v>
+      <c r="B78" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="169" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="79">
@@ -2212,77 +2301,121 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="166" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="C79" s="170" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="84" t="n">
-        <v>538</v>
-      </c>
-      <c r="C80" s="167" t="s">
-        <v>83</v>
+      <c r="B80" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="171" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="85" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="C81" s="168" t="n">
-        <v>0.108</v>
+        <v>0</v>
+      </c>
+      <c r="B81" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="172" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C82" s="169" t="n">
-        <v>0.04</v>
+        <v>-1.713</v>
+      </c>
+      <c r="C82" s="173" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="174" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="88" t="n">
+        <v>761</v>
+      </c>
+      <c r="C84" s="175" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="87" t="n">
-        <v>1.584</v>
-      </c>
-      <c r="C83" s="170" t="n">
-        <v>1.584</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="B85" s="89" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C85" s="176" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="88" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C84" s="171" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
+      <c r="B86" s="90" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="C86" s="177" t="n">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="B87" s="91" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="C87" s="178" t="n">
+        <v>2.466</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A89:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols4.xlsx
+++ b/IRR_ols4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
   </si>
   <si>
@@ -161,173 +164,227 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.916 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.826) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.025) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.946) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.066) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.948) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.436) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.082) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.010) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.009) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.008) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.456 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.011) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.163) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.873) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.863) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.723 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.857) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.859) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.774 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.842) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.850) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.844) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.840) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.838) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.836) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.831) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.830) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.829) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.039 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.828) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.026 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.832) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.859 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.749 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.835) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.937 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.847) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.032 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.851) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.762 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.874) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.019 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.008 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.922) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.087 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.904) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.882) </t>
+    <t xml:space="preserve">2.100 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.498)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.606)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.567)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.622)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.568)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.263 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.861)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.092 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.654)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.702)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.280 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.610)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.412 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.609)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.398 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.648 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.611)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.438 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.255 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.527)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.278 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.521)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.258 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.517)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.026 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.519)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.274 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.509)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.187 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.513)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.102 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.066 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.508)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.191 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.506)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.315 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.504)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.197 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.501)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.083 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.253 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.500)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.578 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.454 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.502)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.549 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.503)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.375 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.505)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.358 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.389 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.511)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.568 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.507)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.524 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.533 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.518)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.449 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.522)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.451 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.557)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.526 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.546)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.239 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.533)   </t>
   </si>
   <si>
     <t xml:space="preserve">(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">      </t>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="173">
+  <numFmts count="177">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -501,6 +558,10 @@
     <numFmt numFmtId="50170" formatCode="0.000"/>
     <numFmt numFmtId="50171" formatCode="0.000"/>
     <numFmt numFmtId="50172" formatCode="0.000"/>
+    <numFmt numFmtId="50173" formatCode="0.000"/>
+    <numFmt numFmtId="50174" formatCode="0.000"/>
+    <numFmt numFmtId="50175" formatCode="0.000"/>
+    <numFmt numFmtId="50176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -606,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -866,28 +927,28 @@
     <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50085" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50086" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50087" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50087" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50088" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1127,7 +1188,7 @@
     <xf numFmtId="50166" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50167" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50167" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50168" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1139,10 +1200,22 @@
     <xf numFmtId="50170" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50171" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50172" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50171" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50172" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50173" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50174" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50175" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50176" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1443,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -1454,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1465,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>102</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -1476,10 +1549,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1.603</v>
-      </c>
-      <c r="C4" s="95" t="n">
-        <v>1.603</v>
+        <v>0.947</v>
+      </c>
+      <c r="C4" s="97" t="n">
+        <v>0.947</v>
       </c>
     </row>
     <row r="5">
@@ -1487,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1498,10 +1571,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C6" s="97" t="n">
-        <v>1.81</v>
+        <v>0.453</v>
+      </c>
+      <c r="C6" s="99" t="n">
+        <v>0.453</v>
       </c>
     </row>
     <row r="7">
@@ -1509,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.787</v>
-      </c>
-      <c r="C8" s="99" t="n">
-        <v>-1.787</v>
+        <v>0.259</v>
+      </c>
+      <c r="C8" s="101" t="n">
+        <v>0.259</v>
       </c>
     </row>
     <row r="9">
@@ -1531,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -1542,10 +1615,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="C10" s="101" t="n">
-        <v>1.429</v>
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="103" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="11">
@@ -1553,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="C12" s="103" t="n">
-        <v>0.835</v>
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -1575,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>2.073</v>
-      </c>
-      <c r="C14" s="105" t="n">
-        <v>2.073</v>
+      <c r="B14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1597,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1608,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1619,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -1630,10 +1703,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1641,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1654,7 +1727,7 @@
       <c r="B20" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="111" t="n">
+      <c r="C20" s="113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1663,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="112" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1674,10 +1747,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-1.671</v>
-      </c>
-      <c r="C22" s="113" t="s">
-        <v>102</v>
+        <v>-1.177</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -1685,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="114" t="s">
-        <v>102</v>
+        <v>64</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="28" t="n">
-        <v>-1.932</v>
-      </c>
-      <c r="C24" s="115" t="s">
-        <v>102</v>
+      <c r="B24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -1707,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="116" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="C25" s="118" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30" t="n">
-        <v>-1.866</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>102</v>
+      <c r="B26" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -1729,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="118" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -1740,10 +1813,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="119" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -1751,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="120" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="34" t="n">
-        <v>-1.938</v>
-      </c>
-      <c r="C30" s="121" t="s">
-        <v>102</v>
+      <c r="B30" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="123" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31">
@@ -1773,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="122" t="s">
-        <v>102</v>
+        <v>71</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="36" t="n">
-        <v>-1.707</v>
-      </c>
-      <c r="C32" s="123" t="s">
-        <v>102</v>
+      <c r="B32" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="125" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1795,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="124" t="s">
-        <v>102</v>
+        <v>64</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="38" t="n">
-        <v>-1.692</v>
-      </c>
-      <c r="C34" s="125" t="s">
-        <v>102</v>
+      <c r="B34" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="127" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -1817,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>102</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="128" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1828,10 +1901,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="127" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="C36" s="129" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -1839,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="128" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="C37" s="130" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="42" t="n">
-        <v>-1.386</v>
-      </c>
-      <c r="C38" s="129" t="s">
-        <v>102</v>
+      <c r="B38" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -1861,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="130" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="C39" s="132" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -1872,10 +1945,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="C40" s="133" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -1883,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="132" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="C41" s="134" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="46" t="n">
-        <v>-1.603</v>
-      </c>
-      <c r="C42" s="133" t="s">
-        <v>102</v>
+      <c r="B42" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="135" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -1905,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="134" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="C43" s="136" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="48" t="n">
-        <v>-1.586</v>
-      </c>
-      <c r="C44" s="135" t="s">
-        <v>102</v>
+      <c r="B44" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="137" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -1927,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="136" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="C45" s="138" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="50" t="n">
-        <v>-1.443</v>
-      </c>
-      <c r="C46" s="137" t="s">
-        <v>102</v>
+      <c r="B46" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="139" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -1949,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="138" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="C47" s="140" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="52" t="n">
-        <v>-1.581</v>
-      </c>
-      <c r="C48" s="139" t="s">
-        <v>102</v>
+      <c r="B48" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="141" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -1971,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="140" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="C49" s="142" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="54" t="n">
-        <v>-1.572</v>
-      </c>
-      <c r="C50" s="141" t="s">
-        <v>102</v>
+      <c r="B50" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="143" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -1993,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="142" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="C51" s="144" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="56" t="n">
-        <v>-1.374</v>
-      </c>
-      <c r="C52" s="143" t="s">
-        <v>102</v>
+      <c r="B52" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="145" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -2015,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="144" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="C53" s="146" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="58" t="n">
-        <v>-1.42</v>
-      </c>
-      <c r="C54" s="145" t="s">
-        <v>102</v>
+      <c r="B54" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="147" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -2037,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="146" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="C55" s="148" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="60" t="n">
-        <v>-1.476</v>
-      </c>
-      <c r="C56" s="147" t="s">
-        <v>102</v>
+      <c r="B56" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="149" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="57">
@@ -2059,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="148" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="C57" s="150" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="58">
@@ -2070,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="149" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="C58" s="151" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -2081,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="150" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="C59" s="152" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60">
@@ -2092,10 +2165,10 @@
         <v>30</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="151" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="C60" s="153" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61">
@@ -2103,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="152" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="C61" s="154" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="62">
@@ -2114,10 +2187,10 @@
         <v>31</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="153" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C62" s="155" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="63">
@@ -2125,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="154" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="C63" s="156" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="64">
@@ -2136,10 +2209,10 @@
         <v>32</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="155" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C64" s="157" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="65">
@@ -2147,21 +2220,21 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="156" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C65" s="158" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="70" t="n">
-        <v>-1.532</v>
-      </c>
-      <c r="C66" s="157" t="s">
+      <c r="B66" s="70" t="s">
         <v>102</v>
+      </c>
+      <c r="C66" s="159" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67">
@@ -2169,21 +2242,21 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="158" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C67" s="160" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="72" t="n">
-        <v>-1.613</v>
-      </c>
-      <c r="C68" s="159" t="s">
-        <v>102</v>
+      <c r="B68" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="161" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="69">
@@ -2191,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="160" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C69" s="162" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="70">
@@ -2202,10 +2275,10 @@
         <v>35</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="161" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C70" s="163" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="71">
@@ -2213,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="162" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="C71" s="164" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72">
@@ -2224,10 +2297,10 @@
         <v>36</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="163" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="C72" s="165" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="73">
@@ -2235,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="164" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="C73" s="166" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="74">
@@ -2246,10 +2319,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="165" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="C74" s="167" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="75">
@@ -2257,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="166" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="C75" s="168" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="76">
@@ -2268,10 +2341,10 @@
         <v>38</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="167" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="C76" s="169" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="77">
@@ -2279,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="168" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="C77" s="170" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="78">
@@ -2290,10 +2363,10 @@
         <v>39</v>
       </c>
       <c r="B78" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="169" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="C78" s="171" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="79">
@@ -2301,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="170" t="s">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="C79" s="172" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80">
@@ -2312,10 +2385,10 @@
         <v>40</v>
       </c>
       <c r="B80" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="171" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="C80" s="173" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="81">
@@ -2323,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="172" t="s">
-        <v>102</v>
+        <v>115</v>
+      </c>
+      <c r="C81" s="174" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="86" t="n">
-        <v>-1.713</v>
-      </c>
-      <c r="C82" s="173" t="s">
-        <v>102</v>
+      <c r="B82" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="175" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83">
@@ -2345,77 +2418,99 @@
         <v>0</v>
       </c>
       <c r="B83" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="174" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="C83" s="176" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B84" s="88" t="n">
-        <v>761</v>
-      </c>
-      <c r="C84" s="175" t="s">
-        <v>102</v>
+      <c r="B84" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="177" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="89" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C85" s="176" t="n">
-        <v>0.12</v>
+        <v>0</v>
+      </c>
+      <c r="B85" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="178" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="90" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="C86" s="177" t="n">
-        <v>0.072</v>
+        <v>904</v>
+      </c>
+      <c r="C86" s="179" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="91" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="C87" s="180" t="n">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B87" s="91" t="n">
-        <v>2.466</v>
-      </c>
-      <c r="C87" s="178" t="n">
-        <v>2.466</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="B88" s="92" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="C88" s="181" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B88" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" s="179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="s">
+      <c r="B89" s="93" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C89" s="182" t="n">
+        <v>3.953</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="B90" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols4.xlsx
+++ b/IRR_ols4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">Operating_Years</t>
@@ -161,46 +161,49 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.451 **</t>
+    <t xml:space="preserve">-0.454 **</t>
   </si>
   <si>
     <t xml:space="preserve">0.003 * </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.433 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.313 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.400 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.352 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.378 * </t>
+    <t xml:space="preserve">-0.432 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.312 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.399 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.351 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.377 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.333 * </t>
   </si>
   <si>
     <t xml:space="preserve">-0.334 * </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.324 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.398 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.373 * </t>
+    <t xml:space="preserve">-0.323 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.397 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.372 * </t>
   </si>
   <si>
     <t xml:space="preserve">-0.395 * </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.358 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.351 * </t>
+    <t xml:space="preserve">-0.357 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.349 * </t>
   </si>
   <si>
     <t xml:space="preserve">(0.156)</t>
@@ -212,49 +215,49 @@
     <t xml:space="preserve">(0.174)</t>
   </si>
   <si>
+    <t xml:space="preserve">(0.184)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.215)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.176)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.218)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.189)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.155)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.173)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.185)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.214)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.175)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.218)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.162)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.161)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.158)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.159)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.157)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.155)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.169)</t>
@@ -1056,7 +1059,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1064,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.118</v>
+        <v>0.133</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1075,10 +1078,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.245</v>
+        <v>0.264</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1086,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>-0.166</v>
+        <v>-0.151</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>66</v>
@@ -1097,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.296</v>
+        <v>0.321</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>67</v>
@@ -1108,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.156</v>
+        <v>0.157</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>68</v>
@@ -1119,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.175</v>
+        <v>0.147</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>69</v>
@@ -1163,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.319</v>
+        <v>-0.317</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>73</v>
@@ -1174,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="n">
-        <v>-0.361</v>
+        <v>-0.359</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>73</v>
@@ -1185,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.317</v>
+        <v>-0.316</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>73</v>
@@ -1218,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>-0.284</v>
+        <v>-0.283</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>74</v>
@@ -1229,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.297</v>
+        <v>-0.296</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>75</v>
@@ -1240,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.285</v>
+        <v>-0.284</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>76</v>
@@ -1251,7 +1254,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.226</v>
+        <v>-0.224</v>
       </c>
       <c r="C20" s="70" t="s">
         <v>76</v>
@@ -1273,7 +1276,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.274</v>
+        <v>-0.273</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>78</v>
@@ -1295,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.245</v>
+        <v>-0.244</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>77</v>
@@ -1320,7 +1323,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -1328,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.29</v>
+        <v>-0.289</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -1339,10 +1342,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.261</v>
+        <v>-0.26</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1350,7 +1353,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.299</v>
+        <v>-0.298</v>
       </c>
       <c r="C29" s="79" t="s">
         <v>80</v>
@@ -1375,7 +1378,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -1386,7 +1389,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -1405,10 +1408,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -1416,7 +1419,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="85" t="s">
         <v>77</v>
@@ -1427,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="86" t="s">
         <v>79</v>
@@ -1438,7 +1441,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="87" t="s">
         <v>78</v>
@@ -1449,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="88" t="s">
         <v>76</v>
@@ -1460,7 +1463,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="89" t="s">
         <v>75</v>
@@ -1471,10 +1474,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.332</v>
+        <v>-0.33</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -1482,10 +1485,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -1493,10 +1496,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-0.279</v>
+        <v>-0.277</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1510,7 @@
         <v>910</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
@@ -1515,10 +1518,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
@@ -1529,7 +1532,7 @@
         <v>0.097</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
@@ -1537,10 +1540,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>3.43</v>
+        <v>3.441</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -1551,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">

--- a/IRR_ols4.xlsx
+++ b/IRR_ols4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -161,67 +161,67 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.454 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.432 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.312 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.399 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.351 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.377 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.333 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.334 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.323 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.397 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.372 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.395 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.357 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.349 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.172)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.174)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.184)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.215)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.176)</t>
+    <t xml:space="preserve">0.968 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.546 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.742 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.485 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.612 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.425 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.493 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.481 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.413 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.409 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.441 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.469 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.434 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.457 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.484 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.203)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.220)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.223)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.274)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.241)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.001)</t>
@@ -230,40 +230,43 @@
     <t xml:space="preserve">(0.000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.218)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.162)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.161)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.158)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.159)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.157)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.155)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.173)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.169)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.165)</t>
+    <t xml:space="preserve">(0.285)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.247)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.214)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.211)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.210)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.206)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.208)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.205)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.204)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.207)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.226)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.221)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.216)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1059,7 +1062,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1067,32 +1070,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.133</v>
+        <v>0.03</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>0.264</v>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>-0.151</v>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1100,10 +1103,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.321</v>
+        <v>0.366</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.157</v>
+        <v>-0.163</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>68</v>
@@ -1122,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.147</v>
+        <v>-0.106</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>69</v>
@@ -1133,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>70</v>
@@ -1155,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.253</v>
+        <v>-0.332</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>72</v>
@@ -1166,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.317</v>
+        <v>-0.409</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>73</v>
@@ -1176,8 +1179,8 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="n">
-        <v>-0.359</v>
+      <c r="B13" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>73</v>
@@ -1188,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.316</v>
+        <v>-0.436</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>73</v>
@@ -1199,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>73</v>
@@ -1210,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.329</v>
+        <v>-0.459</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>72</v>
@@ -1221,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>-0.283</v>
+        <v>-0.409</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>74</v>
@@ -1232,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.296</v>
+        <v>-0.402</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>75</v>
@@ -1243,7 +1246,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.284</v>
+        <v>-0.407</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>76</v>
@@ -1254,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.224</v>
+        <v>-0.305</v>
       </c>
       <c r="C20" s="70" t="s">
         <v>76</v>
@@ -1264,8 +1267,8 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="n">
-        <v>-0.298</v>
+      <c r="B21" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C21" s="71" t="s">
         <v>77</v>
@@ -1276,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.273</v>
+        <v>-0.384</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>78</v>
@@ -1287,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.256</v>
+        <v>-0.359</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>77</v>
@@ -1298,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.244</v>
+        <v>-0.336</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>77</v>
@@ -1309,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.27</v>
+        <v>-0.373</v>
       </c>
       <c r="C25" s="75" t="s">
         <v>79</v>
@@ -1319,11 +1322,11 @@
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>52</v>
+      <c r="B26" s="30" t="n">
+        <v>-0.363</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -1331,10 +1334,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.289</v>
+        <v>-0.331</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -1342,10 +1345,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.26</v>
+        <v>-0.332</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -1353,10 +1356,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.298</v>
+        <v>-0.348</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -1364,10 +1367,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -1375,10 +1378,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -1386,10 +1389,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -1397,7 +1400,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C33" s="83" t="s">
         <v>79</v>
@@ -1407,22 +1410,22 @@
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>57</v>
+      <c r="B34" s="38" t="n">
+        <v>-0.355</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>58</v>
+      <c r="B35" s="39" t="n">
+        <v>-0.389</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -1430,10 +1433,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -1441,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="87" t="s">
         <v>78</v>
@@ -1451,11 +1454,11 @@
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>61</v>
+      <c r="B38" s="42" t="n">
+        <v>-0.418</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
@@ -1466,18 +1469,18 @@
         <v>62</v>
       </c>
       <c r="C39" s="89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="44" t="n">
-        <v>-0.33</v>
+      <c r="B40" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -1485,10 +1488,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -1496,10 +1499,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-0.277</v>
+        <v>-0.377</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -1507,10 +1510,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>910</v>
+        <v>796</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -1518,10 +1521,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.137</v>
+        <v>0.119</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -1529,10 +1532,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="49" t="n">
-        <v>0.097</v>
+        <v>0.072</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -1540,10 +1543,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>3.441</v>
+        <v>2.554</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -1554,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">

--- a/IRR_ols4.xlsx
+++ b/IRR_ols4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -161,112 +161,127 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.546 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.742 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.485 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.612 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.425 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.493 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.481 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.413 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.409 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.441 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.469 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.434 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.457 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.484 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.203)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.220)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.223)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.274)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.241)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)</t>
+    <t xml:space="preserve">1.198 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.032 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.928 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.862 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.756 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.789 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.708 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.706 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.822 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.806 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.901 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.772 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.749 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.349)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.374)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.379)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.454)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.466)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.413)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.285)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.247)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.214)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.211)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.210)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.206)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.208)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.205)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.204)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.207)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.226)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.221)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.216)</t>
+    <t xml:space="preserve">(0.489)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.424)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.425)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.367)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.363)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.360)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.361)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.354)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.357)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.355)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.353)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.351)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.348)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.356)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.359)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.387)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.380)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.371)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1062,7 +1077,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1070,43 +1085,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.03</v>
+        <v>0.393</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
+      <c r="B4" s="8" t="n">
+        <v>0.511</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>51</v>
+      <c r="B5" s="9" t="n">
+        <v>-0.653</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>0.366</v>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1114,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>-0.163</v>
+        <v>-0.24</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1125,10 +1140,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-0.106</v>
+        <v>0.635</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -1136,10 +1151,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1150,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1158,10 +1173,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.332</v>
+        <v>-0.529</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1169,21 +1184,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.409</v>
+        <v>-0.668</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>53</v>
+      <c r="B13" s="17" t="n">
+        <v>-0.761</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1191,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.436</v>
+        <v>-0.667</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1202,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>73</v>
@@ -1213,10 +1228,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.459</v>
+        <v>-0.695</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1224,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>-0.409</v>
+        <v>-0.591</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>74</v>
@@ -1235,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.402</v>
+        <v>-0.621</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>75</v>
@@ -1246,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.407</v>
+        <v>-0.596</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>76</v>
@@ -1257,21 +1272,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.305</v>
+        <v>-0.468</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>55</v>
+      <c r="B21" s="25" t="n">
+        <v>-0.629</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -1279,10 +1294,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.384</v>
+        <v>-0.573</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -1290,10 +1305,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.359</v>
+        <v>-0.54</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -1301,10 +1316,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.336</v>
+        <v>-0.516</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -1312,10 +1327,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.373</v>
+        <v>-0.57</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -1323,10 +1338,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.363</v>
+        <v>-0.665</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -1334,10 +1349,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.331</v>
+        <v>-0.616</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -1345,10 +1360,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.332</v>
+        <v>-0.56</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -1356,10 +1371,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.348</v>
+        <v>-0.654</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -1367,10 +1382,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -1378,10 +1393,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -1389,10 +1404,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -1400,21 +1415,21 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="n">
-        <v>-0.355</v>
+      <c r="B34" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -1422,10 +1437,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>-0.389</v>
+        <v>-0.688</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -1433,7 +1448,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="86" t="s">
         <v>81</v>
@@ -1444,21 +1459,21 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="n">
-        <v>-0.418</v>
+      <c r="B38" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -1466,21 +1481,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="89" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>63</v>
+      <c r="B40" s="44" t="n">
+        <v>-0.708</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -1488,10 +1503,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
@@ -1499,10 +1514,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-0.377</v>
+        <v>-0.595</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -1510,10 +1525,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>796</v>
+        <v>941</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -1521,10 +1536,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.119</v>
+        <v>0.133</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -1532,10 +1547,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="49" t="n">
-        <v>0.072</v>
+        <v>0.095</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
@@ -1543,10 +1558,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>2.554</v>
+        <v>3.459</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
@@ -1557,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">

--- a/IRR_ols4.xlsx
+++ b/IRR_ols4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+    <t xml:space="preserve">MSCI</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
@@ -161,127 +161,88 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.198 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.032 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.928 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.862 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.756 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.789 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.708 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.706 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.822 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.806 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.901 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.772 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.749 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.349)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.374)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.379)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.454)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.466)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.413)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)</t>
+    <t xml:space="preserve">-0.720 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.028 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.192)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.218)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.316)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.225)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.376)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.223)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.489)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.424)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.425)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.367)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.363)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.360)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.361)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.354)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.357)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.355)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.353)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.351)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.348)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.350)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.356)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.359)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.387)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.380)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.371)</t>
+    <t xml:space="preserve">(0.045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.191)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.220)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.166)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.163)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.174)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.171)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.167)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1077,7 +1038,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1085,54 +1046,54 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.393</v>
+        <v>-0.173</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>0.511</v>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>-0.653</v>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>50</v>
+      <c r="B6" s="10" t="n">
+        <v>0.055</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="n">
-        <v>-0.24</v>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1140,10 +1101,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.635</v>
+        <v>-0.053</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1151,10 +1112,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -1165,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1173,10 +1134,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.529</v>
+        <v>-0.015</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -1184,10 +1145,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.668</v>
+        <v>-0.062</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1195,10 +1156,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="n">
-        <v>-0.761</v>
+        <v>-0.104</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -1206,21 +1167,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.667</v>
+        <v>-0.063</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>52</v>
+      <c r="B15" s="19" t="n">
+        <v>-0.177</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -1228,10 +1189,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.695</v>
+        <v>-0.076</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -1239,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>-0.591</v>
+        <v>-0.018</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -1250,10 +1211,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.621</v>
+        <v>-0.039</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -1261,10 +1222,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.596</v>
+        <v>-0.023</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -1272,10 +1233,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.468</v>
+        <v>0.035</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -1283,10 +1244,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>-0.629</v>
+        <v>-0.039</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1294,10 +1255,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.573</v>
+        <v>-0.015</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -1305,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.54</v>
+        <v>-0.004</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -1316,10 +1277,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.516</v>
+        <v>0.007</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -1327,10 +1288,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.57</v>
+        <v>-0.017</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -1338,10 +1299,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.665</v>
+        <v>-0.06</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -1349,10 +1310,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.616</v>
+        <v>-0.034</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -1360,10 +1321,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.56</v>
+        <v>-0.006</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1371,65 +1332,65 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.654</v>
+        <v>-0.048</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>53</v>
+      <c r="B30" s="34" t="n">
+        <v>-0.144</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>54</v>
+      <c r="B31" s="35" t="n">
+        <v>-0.105</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>55</v>
+      <c r="B32" s="36" t="n">
+        <v>-0.112</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>56</v>
+      <c r="B33" s="37" t="n">
+        <v>-0.081</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>57</v>
+      <c r="B34" s="38" t="n">
+        <v>-0.076</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
@@ -1437,54 +1398,54 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>-0.688</v>
+        <v>-0.068</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>58</v>
+      <c r="B36" s="40" t="n">
+        <v>-0.127</v>
       </c>
       <c r="C36" s="86" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>59</v>
+      <c r="B37" s="41" t="n">
+        <v>-0.119</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>60</v>
+      <c r="B38" s="42" t="n">
+        <v>-0.162</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>61</v>
+      <c r="B39" s="43" t="n">
+        <v>-0.1</v>
       </c>
       <c r="C39" s="89" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -1492,21 +1453,21 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-0.708</v>
+        <v>-0.081</v>
       </c>
       <c r="C40" s="90" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>62</v>
+      <c r="B41" s="45" t="n">
+        <v>-0.101</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -1514,10 +1475,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-0.595</v>
+        <v>-0.029</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -1525,10 +1486,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -1539,7 +1500,7 @@
         <v>0.133</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -1547,10 +1508,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="49" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -1558,10 +1519,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>3.459</v>
+        <v>3.445</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -1572,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
